--- a/src/main/TestData/TestData.xlsx
+++ b/src/main/TestData/TestData.xlsx
@@ -1,100 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapta\eclipse-workspace1\com.java_selenium\src\main\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A93B14-674D-4C9F-A8FF-7ACE4DF6F596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550B8455-A6F9-4614-9E61-0D6BBCB41C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="New Sheet" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>TestCaseId</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Text1</t>
+  </si>
+  <si>
+    <t>TC001</t>
   </si>
   <si>
     <t>Keyword1</t>
   </si>
   <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
     <t>Keyword2</t>
   </si>
   <si>
-    <t>Keyword3</t>
-  </si>
-  <si>
-    <t>TC001</t>
-  </si>
-  <si>
-    <t>Football</t>
-  </si>
-  <si>
-    <t>Soccer</t>
-  </si>
-  <si>
-    <t>Cricket</t>
-  </si>
-  <si>
-    <t>TC002</t>
-  </si>
-  <si>
-    <t>Cinema</t>
-  </si>
-  <si>
-    <t>Movies</t>
-  </si>
-  <si>
-    <t>OTT</t>
-  </si>
-  <si>
-    <t>Keyword4</t>
-  </si>
-  <si>
-    <t>VideoGame</t>
-  </si>
-  <si>
-    <t>FIFA 23</t>
-  </si>
-  <si>
-    <t>TC003</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
+    <t>ffsfssf</t>
+  </si>
+  <si>
+    <t>Newdata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,7 +117,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -168,7 +129,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -215,6 +176,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -250,6 +228,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -401,83 +396,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B16A98-834E-4030-8077-327426C016C3}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>